--- a/ep/ep/export/flourish/Joint_party_group.xlsx
+++ b/ep/ep/export/flourish/Joint_party_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="49">
   <si>
     <t>name1</t>
   </si>
@@ -118,7 +118,7 @@
     <t>PSD</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
   </si>
   <si>
     <t>UNPR</t>
@@ -140,13 +140,34 @@
   </si>
   <si>
     <t>Verts/ALE</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +182,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,16 +223,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,6 +606,9 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H2">
         <v>0.963</v>
       </c>
@@ -604,6 +641,9 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O3">
         <v>0.5679999999999999</v>
       </c>
@@ -633,6 +673,9 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H4">
         <v>0.543</v>
       </c>
@@ -659,6 +702,9 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H5">
         <v>0.597</v>
       </c>
@@ -691,6 +737,9 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H6">
         <v>0.715</v>
       </c>
@@ -723,6 +772,9 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H7">
         <v>0.741</v>
       </c>
@@ -755,6 +807,9 @@
       <c r="C8" t="s">
         <v>41</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O8">
         <v>0.723</v>
       </c>
@@ -784,6 +839,9 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O9">
         <v>0.851</v>
       </c>
@@ -813,6 +871,9 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="P10">
         <v>0.6919999999999999</v>
       </c>
@@ -839,6 +900,9 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P11">
         <v>0.501</v>
       </c>
@@ -862,6 +926,9 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O12">
         <v>0.425</v>
       </c>
@@ -891,6 +958,9 @@
       <c r="C13" t="s">
         <v>39</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O13">
         <v>0.853</v>
       </c>
@@ -920,6 +990,9 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O14">
         <v>0.987</v>
       </c>
@@ -949,6 +1022,9 @@
       <c r="C15" t="s">
         <v>41</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O15">
         <v>0.715</v>
       </c>
@@ -978,6 +1054,9 @@
       <c r="C16" t="s">
         <v>36</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E16">
         <v>0.893</v>
       </c>
@@ -1022,6 +1101,9 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J17">
         <v>1</v>
       </c>
@@ -1051,6 +1133,9 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H18">
         <v>0.57</v>
       </c>
@@ -1065,6 +1150,9 @@
       <c r="C19" t="s">
         <v>28</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H19">
         <v>0.604</v>
       </c>
@@ -1097,6 +1185,9 @@
       <c r="C20" t="s">
         <v>39</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E20">
         <v>0.831</v>
       </c>
@@ -1141,6 +1232,9 @@
       <c r="C21" t="s">
         <v>40</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E21">
         <v>0.715</v>
       </c>
@@ -1185,6 +1279,9 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I22">
         <v>0.7</v>
       </c>
@@ -1202,6 +1299,9 @@
       <c r="C23" t="s">
         <v>36</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O23">
         <v>0.597</v>
       </c>
@@ -1231,6 +1331,9 @@
       <c r="C24" t="s">
         <v>37</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="P24">
         <v>0.535</v>
       </c>
@@ -1257,6 +1360,9 @@
       <c r="C25" t="s">
         <v>38</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P25">
         <v>0.445</v>
       </c>
@@ -1280,6 +1386,9 @@
       <c r="C26" t="s">
         <v>28</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O26">
         <v>0.572</v>
       </c>
@@ -1309,6 +1418,9 @@
       <c r="C27" t="s">
         <v>39</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O27">
         <v>0.5649999999999999</v>
       </c>
@@ -1338,6 +1450,9 @@
       <c r="C28" t="s">
         <v>40</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O28">
         <v>0.719</v>
       </c>
@@ -1367,6 +1482,9 @@
       <c r="C29" t="s">
         <v>41</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O29">
         <v>1</v>
       </c>
@@ -1396,6 +1514,9 @@
       <c r="C30" t="s">
         <v>36</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H30">
         <v>0.67</v>
       </c>
@@ -1410,6 +1531,9 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H31">
         <v>0.644</v>
       </c>
@@ -1424,6 +1548,9 @@
       <c r="C32" t="s">
         <v>28</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H32">
         <v>0.53</v>
       </c>
@@ -1438,6 +1565,9 @@
       <c r="C33" t="s">
         <v>39</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H33">
         <v>0.853</v>
       </c>
@@ -1452,6 +1582,9 @@
       <c r="C34" t="s">
         <v>40</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H34">
         <v>0.543</v>
       </c>
@@ -1466,6 +1599,9 @@
       <c r="C35" t="s">
         <v>36</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E35">
         <v>0.732</v>
       </c>
@@ -1525,6 +1661,9 @@
       <c r="C36" t="s">
         <v>37</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J36">
         <v>0.643</v>
       </c>
@@ -1569,6 +1708,9 @@
       <c r="C37" t="s">
         <v>38</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H37">
         <v>0.629</v>
       </c>
@@ -1595,6 +1737,9 @@
       <c r="C38" t="s">
         <v>28</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H38">
         <v>0.586</v>
       </c>
@@ -1642,6 +1787,9 @@
       <c r="C39" t="s">
         <v>39</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E39">
         <v>0.954</v>
       </c>
@@ -1701,6 +1849,9 @@
       <c r="C40" t="s">
         <v>40</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E40">
         <v>0.593</v>
       </c>
@@ -1760,6 +1911,9 @@
       <c r="C41" t="s">
         <v>41</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I41">
         <v>0.871</v>
       </c>
@@ -1795,6 +1949,9 @@
       <c r="C42" t="s">
         <v>36</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J42">
         <v>0.447</v>
       </c>
@@ -1839,6 +1996,9 @@
       <c r="C43" t="s">
         <v>37</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J43">
         <v>0.525</v>
       </c>
@@ -1883,6 +2043,9 @@
       <c r="C44" t="s">
         <v>38</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P44">
         <v>0.721</v>
       </c>
@@ -1906,6 +2069,9 @@
       <c r="C45" t="s">
         <v>28</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J45">
         <v>0.825</v>
       </c>
@@ -1950,6 +2116,9 @@
       <c r="C46" t="s">
         <v>39</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="J46">
         <v>0.491</v>
       </c>
@@ -1994,6 +2163,9 @@
       <c r="C47" t="s">
         <v>40</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J47">
         <v>0.421</v>
       </c>
@@ -2038,6 +2210,9 @@
       <c r="C48" t="s">
         <v>41</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O48">
         <v>0.581</v>
       </c>
@@ -2067,6 +2242,9 @@
       <c r="C49" t="s">
         <v>36</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O49">
         <v>0.594</v>
       </c>
@@ -2096,6 +2274,9 @@
       <c r="C50" t="s">
         <v>37</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="P50">
         <v>0.596</v>
       </c>
@@ -2122,6 +2303,9 @@
       <c r="C51" t="s">
         <v>38</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P51">
         <v>0.473</v>
       </c>
@@ -2145,6 +2329,9 @@
       <c r="C52" t="s">
         <v>28</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O52">
         <v>0.59</v>
       </c>
@@ -2174,6 +2361,9 @@
       <c r="C53" t="s">
         <v>39</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O53">
         <v>0.555</v>
       </c>
@@ -2203,6 +2393,9 @@
       <c r="C54" t="s">
         <v>40</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O54">
         <v>0.719</v>
       </c>
@@ -2232,6 +2425,9 @@
       <c r="C55" t="s">
         <v>41</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O55">
         <v>1</v>
       </c>
@@ -2261,6 +2457,9 @@
       <c r="C56" t="s">
         <v>36</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E56">
         <v>0.778</v>
       </c>
@@ -2320,6 +2519,9 @@
       <c r="C57" t="s">
         <v>37</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J57">
         <v>0.62</v>
       </c>
@@ -2364,6 +2566,9 @@
       <c r="C58" t="s">
         <v>38</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H58">
         <v>0.531</v>
       </c>
@@ -2390,6 +2595,9 @@
       <c r="C59" t="s">
         <v>28</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H59">
         <v>0.651</v>
       </c>
@@ -2437,6 +2645,9 @@
       <c r="C60" t="s">
         <v>39</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E60">
         <v>0.598</v>
       </c>
@@ -2496,6 +2707,9 @@
       <c r="C61" t="s">
         <v>40</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E61">
         <v>0.979</v>
       </c>
@@ -2555,6 +2769,9 @@
       <c r="C62" t="s">
         <v>41</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I62">
         <v>0.829</v>
       </c>
@@ -2590,6 +2807,9 @@
       <c r="C63" t="s">
         <v>36</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E63">
         <v>0.732</v>
       </c>
@@ -2634,6 +2854,9 @@
       <c r="C64" t="s">
         <v>37</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J64">
         <v>0.897</v>
       </c>
@@ -2666,6 +2889,9 @@
       <c r="C65" t="s">
         <v>38</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H65">
         <v>0.8070000000000001</v>
       </c>
@@ -2692,6 +2918,9 @@
       <c r="C66" t="s">
         <v>39</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E66">
         <v>0.974</v>
       </c>
@@ -2736,6 +2965,9 @@
       <c r="C67" t="s">
         <v>40</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E67">
         <v>0.976</v>
       </c>
@@ -2780,6 +3012,9 @@
       <c r="C68" t="s">
         <v>41</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I68">
         <v>1</v>
       </c>
@@ -2815,6 +3050,9 @@
       <c r="C69" t="s">
         <v>36</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O69">
         <v>0.829</v>
       </c>
@@ -2841,6 +3079,9 @@
       <c r="C70" t="s">
         <v>37</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O70">
         <v>0.657</v>
       </c>
@@ -2867,6 +3108,9 @@
       <c r="C71" t="s">
         <v>38</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P71">
         <v>0.5659999999999999</v>
       </c>
@@ -2890,6 +3134,9 @@
       <c r="C72" t="s">
         <v>28</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O72">
         <v>0.675</v>
       </c>
@@ -2916,6 +3163,9 @@
       <c r="C73" t="s">
         <v>39</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O73">
         <v>0.964</v>
       </c>
@@ -2942,6 +3192,9 @@
       <c r="C74" t="s">
         <v>40</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O74">
         <v>0.8149999999999999</v>
       </c>
@@ -2968,6 +3221,9 @@
       <c r="C75" t="s">
         <v>41</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O75">
         <v>0.5600000000000001</v>
       </c>
@@ -2994,6 +3250,9 @@
       <c r="C76" t="s">
         <v>36</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H76">
         <v>0.846</v>
       </c>
@@ -3044,6 +3303,9 @@
       <c r="C77" t="s">
         <v>37</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J77">
         <v>0.696</v>
       </c>
@@ -3088,6 +3350,9 @@
       <c r="C78" t="s">
         <v>38</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H78">
         <v>0.5679999999999999</v>
       </c>
@@ -3114,6 +3379,9 @@
       <c r="C79" t="s">
         <v>28</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H79">
         <v>0.604</v>
       </c>
@@ -3161,6 +3429,9 @@
       <c r="C80" t="s">
         <v>39</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H80">
         <v>0.827</v>
       </c>
@@ -3211,6 +3482,9 @@
       <c r="C81" t="s">
         <v>40</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H81">
         <v>0.6830000000000001</v>
       </c>
@@ -3261,6 +3535,9 @@
       <c r="C82" t="s">
         <v>41</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I82">
         <v>0.714</v>
       </c>
@@ -3296,6 +3573,9 @@
       <c r="C83" t="s">
         <v>36</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O83">
         <v>0.837</v>
       </c>
@@ -3310,6 +3590,9 @@
       <c r="C84" t="s">
         <v>28</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O84">
         <v>0.738</v>
       </c>
@@ -3324,6 +3607,9 @@
       <c r="C85" t="s">
         <v>39</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O85">
         <v>0.9360000000000001</v>
       </c>
@@ -3338,6 +3624,9 @@
       <c r="C86" t="s">
         <v>40</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O86">
         <v>0.767</v>
       </c>
@@ -3352,6 +3641,9 @@
       <c r="C87" t="s">
         <v>36</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H87">
         <v>0.5679999999999999</v>
       </c>
@@ -3384,6 +3676,9 @@
       <c r="C88" t="s">
         <v>37</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J88">
         <v>0.639</v>
       </c>
@@ -3413,6 +3708,9 @@
       <c r="C89" t="s">
         <v>38</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H89">
         <v>0.832</v>
       </c>
@@ -3427,6 +3725,9 @@
       <c r="C90" t="s">
         <v>28</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H90">
         <v>0.698</v>
       </c>
@@ -3459,6 +3760,9 @@
       <c r="C91" t="s">
         <v>39</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H91">
         <v>0.62</v>
       </c>
@@ -3491,6 +3795,9 @@
       <c r="C92" t="s">
         <v>40</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H92">
         <v>0.573</v>
       </c>
@@ -3523,6 +3830,9 @@
       <c r="C93" t="s">
         <v>36</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H93">
         <v>0.764</v>
       </c>
@@ -3573,6 +3883,9 @@
       <c r="C94" t="s">
         <v>37</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J94">
         <v>0.624</v>
       </c>
@@ -3617,6 +3930,9 @@
       <c r="C95" t="s">
         <v>38</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H95">
         <v>0.548</v>
       </c>
@@ -3643,6 +3959,9 @@
       <c r="C96" t="s">
         <v>28</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H96">
         <v>0.631</v>
       </c>
@@ -3690,6 +4009,9 @@
       <c r="C97" t="s">
         <v>39</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H97">
         <v>0.638</v>
       </c>
@@ -3740,6 +4062,9 @@
       <c r="C98" t="s">
         <v>40</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H98">
         <v>0.9350000000000001</v>
       </c>
@@ -3790,6 +4115,9 @@
       <c r="C99" t="s">
         <v>41</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I99">
         <v>0.792</v>
       </c>
@@ -3825,6 +4153,9 @@
       <c r="C100" t="s">
         <v>36</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H100">
         <v>0.6879999999999999</v>
       </c>
@@ -3875,6 +4206,9 @@
       <c r="C101" t="s">
         <v>37</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J101">
         <v>0.631</v>
       </c>
@@ -3919,6 +4253,9 @@
       <c r="C102" t="s">
         <v>38</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H102">
         <v>0.5639999999999999</v>
       </c>
@@ -3945,6 +4282,9 @@
       <c r="C103" t="s">
         <v>28</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H103">
         <v>0.615</v>
       </c>
@@ -3992,6 +4332,9 @@
       <c r="C104" t="s">
         <v>39</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H104">
         <v>0.911</v>
       </c>
@@ -4042,6 +4385,9 @@
       <c r="C105" t="s">
         <v>40</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H105">
         <v>0.618</v>
       </c>
@@ -4092,6 +4438,9 @@
       <c r="C106" t="s">
         <v>41</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I106">
         <v>0.855</v>
       </c>
@@ -4127,6 +4476,9 @@
       <c r="C107" t="s">
         <v>36</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O107">
         <v>0.8090000000000001</v>
       </c>
@@ -4147,6 +4499,9 @@
       <c r="C108" t="s">
         <v>37</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="P108">
         <v>0.705</v>
       </c>
@@ -4164,6 +4519,9 @@
       <c r="C109" t="s">
         <v>38</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P109">
         <v>0.511</v>
       </c>
@@ -4181,6 +4539,9 @@
       <c r="C110" t="s">
         <v>28</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O110">
         <v>0.453</v>
       </c>
@@ -4201,6 +4562,9 @@
       <c r="C111" t="s">
         <v>39</v>
       </c>
+      <c r="D111" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O111">
         <v>0.824</v>
       </c>
@@ -4221,6 +4585,9 @@
       <c r="C112" t="s">
         <v>40</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O112">
         <v>0.99</v>
       </c>
@@ -4241,6 +4608,9 @@
       <c r="C113" t="s">
         <v>41</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O113">
         <v>0.723</v>
       </c>
@@ -4252,6 +4622,120 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Joint_party_group.xlsx
+++ b/ep/ep/export/flourish/Joint_party_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="48">
   <si>
     <t>name1</t>
   </si>
@@ -130,37 +130,34 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>ENF</t>
-  </si>
-  <si>
-    <t>PPE</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EPP</t>
+  </si>
+  <si>
+    <t>Greens</t>
   </si>
   <si>
     <t>S&amp;D</t>
   </si>
   <si>
-    <t>Verts/ALE</t>
-  </si>
-  <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
-  </si>
-  <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
-  </si>
-  <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
   </si>
 </sst>
 </file>
@@ -673,9 +670,6 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H4">
         <v>0.543</v>
       </c>
@@ -700,31 +694,31 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0.597</v>
+        <v>0.715</v>
       </c>
       <c r="O5">
-        <v>0.733</v>
+        <v>0.803</v>
       </c>
       <c r="P5">
-        <v>0.525</v>
+        <v>0.766</v>
       </c>
       <c r="Q5">
-        <v>0.553</v>
+        <v>0.757</v>
       </c>
       <c r="R5">
-        <v>0.512</v>
+        <v>0.76</v>
       </c>
       <c r="S5">
-        <v>0.526</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="T5">
-        <v>0.5679999999999999</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -735,31 +729,28 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6">
-        <v>0.715</v>
+        <v>45</v>
       </c>
       <c r="O6">
-        <v>0.803</v>
+        <v>0.723</v>
       </c>
       <c r="P6">
-        <v>0.766</v>
+        <v>0.761</v>
       </c>
       <c r="Q6">
-        <v>0.757</v>
+        <v>0.754</v>
       </c>
       <c r="R6">
-        <v>0.76</v>
+        <v>0.751</v>
       </c>
       <c r="S6">
-        <v>0.8139999999999999</v>
+        <v>0.652</v>
       </c>
       <c r="T6">
-        <v>0.786</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -770,31 +761,31 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7">
-        <v>0.741</v>
+        <v>0.597</v>
       </c>
       <c r="O7">
-        <v>0.982</v>
+        <v>0.733</v>
       </c>
       <c r="P7">
-        <v>0.974</v>
+        <v>0.525</v>
       </c>
       <c r="Q7">
-        <v>0.971</v>
+        <v>0.553</v>
       </c>
       <c r="R7">
-        <v>0.919</v>
+        <v>0.512</v>
       </c>
       <c r="S7">
-        <v>0.867</v>
+        <v>0.526</v>
       </c>
       <c r="T7">
-        <v>0.885</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -808,25 +799,28 @@
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>0.741</v>
       </c>
       <c r="O8">
-        <v>0.723</v>
+        <v>0.982</v>
       </c>
       <c r="P8">
-        <v>0.761</v>
+        <v>0.974</v>
       </c>
       <c r="Q8">
-        <v>0.754</v>
+        <v>0.971</v>
       </c>
       <c r="R8">
-        <v>0.751</v>
+        <v>0.919</v>
       </c>
       <c r="S8">
-        <v>0.652</v>
+        <v>0.867</v>
       </c>
       <c r="T8">
-        <v>0.578</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -900,9 +894,6 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P11">
         <v>0.501</v>
       </c>
@@ -924,28 +915,28 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12">
-        <v>0.425</v>
+        <v>0.853</v>
       </c>
       <c r="P12">
-        <v>0.517</v>
+        <v>0.764</v>
       </c>
       <c r="Q12">
-        <v>0.536</v>
+        <v>0.758</v>
       </c>
       <c r="R12">
-        <v>0.522</v>
+        <v>0.738</v>
       </c>
       <c r="S12">
-        <v>0.496</v>
+        <v>0.712</v>
       </c>
       <c r="T12">
-        <v>0.681</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -956,28 +947,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O13">
-        <v>0.853</v>
+        <v>0.715</v>
       </c>
       <c r="P13">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="Q13">
-        <v>0.758</v>
+        <v>0.751</v>
       </c>
       <c r="R13">
-        <v>0.738</v>
+        <v>0.824</v>
       </c>
       <c r="S13">
-        <v>0.712</v>
+        <v>0.78</v>
       </c>
       <c r="T13">
-        <v>0.649</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -988,28 +979,28 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O14">
-        <v>0.987</v>
+        <v>0.425</v>
       </c>
       <c r="P14">
-        <v>0.97</v>
+        <v>0.517</v>
       </c>
       <c r="Q14">
-        <v>0.967</v>
+        <v>0.536</v>
       </c>
       <c r="R14">
-        <v>0.962</v>
+        <v>0.522</v>
       </c>
       <c r="S14">
-        <v>0.918</v>
+        <v>0.496</v>
       </c>
       <c r="T14">
-        <v>0.897</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1023,25 +1014,25 @@
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15">
-        <v>0.715</v>
+        <v>0.987</v>
       </c>
       <c r="P15">
-        <v>0.762</v>
+        <v>0.97</v>
       </c>
       <c r="Q15">
-        <v>0.751</v>
+        <v>0.967</v>
       </c>
       <c r="R15">
-        <v>0.824</v>
+        <v>0.962</v>
       </c>
       <c r="S15">
-        <v>0.78</v>
+        <v>0.918</v>
       </c>
       <c r="T15">
-        <v>0.79</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1133,9 +1124,6 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H18">
         <v>0.57</v>
       </c>
@@ -1148,31 +1136,43 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>0.831</v>
+      </c>
+      <c r="F19">
+        <v>0.837</v>
+      </c>
+      <c r="G19">
+        <v>0.874</v>
       </c>
       <c r="H19">
-        <v>0.604</v>
+        <v>0.767</v>
+      </c>
+      <c r="I19">
+        <v>0.824</v>
       </c>
       <c r="J19">
-        <v>0.573</v>
+        <v>0.785</v>
       </c>
       <c r="K19">
-        <v>0.479</v>
+        <v>0.673</v>
       </c>
       <c r="L19">
-        <v>0.47</v>
+        <v>0.527</v>
       </c>
       <c r="M19">
-        <v>0.527</v>
+        <v>0.638</v>
       </c>
       <c r="N19">
-        <v>0.55</v>
+        <v>0.545</v>
       </c>
       <c r="O19">
-        <v>0.5570000000000001</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1183,43 +1183,16 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20">
-        <v>0.831</v>
-      </c>
-      <c r="F20">
-        <v>0.837</v>
-      </c>
-      <c r="G20">
-        <v>0.874</v>
-      </c>
-      <c r="H20">
-        <v>0.767</v>
+        <v>45</v>
       </c>
       <c r="I20">
-        <v>0.824</v>
+        <v>0.7</v>
       </c>
       <c r="J20">
-        <v>0.785</v>
-      </c>
-      <c r="K20">
-        <v>0.673</v>
-      </c>
-      <c r="L20">
-        <v>0.527</v>
-      </c>
-      <c r="M20">
-        <v>0.638</v>
-      </c>
-      <c r="N20">
-        <v>0.545</v>
-      </c>
-      <c r="O20">
-        <v>0.669</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1230,43 +1203,31 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21">
-        <v>0.715</v>
-      </c>
-      <c r="F21">
-        <v>0.634</v>
-      </c>
-      <c r="G21">
-        <v>0.783</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>0.732</v>
-      </c>
-      <c r="I21">
-        <v>0.751</v>
+        <v>0.604</v>
       </c>
       <c r="J21">
-        <v>0.755</v>
+        <v>0.573</v>
       </c>
       <c r="K21">
-        <v>0.418</v>
+        <v>0.479</v>
       </c>
       <c r="L21">
-        <v>0.492</v>
+        <v>0.47</v>
       </c>
       <c r="M21">
+        <v>0.527</v>
+      </c>
+      <c r="N21">
         <v>0.55</v>
       </c>
-      <c r="N21">
-        <v>0.506</v>
-      </c>
       <c r="O21">
-        <v>0.556</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1280,13 +1241,40 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>0.715</v>
+      </c>
+      <c r="F22">
+        <v>0.634</v>
+      </c>
+      <c r="G22">
+        <v>0.783</v>
+      </c>
+      <c r="H22">
+        <v>0.732</v>
       </c>
       <c r="I22">
-        <v>0.7</v>
+        <v>0.751</v>
       </c>
       <c r="J22">
-        <v>0.872</v>
+        <v>0.755</v>
+      </c>
+      <c r="K22">
+        <v>0.418</v>
+      </c>
+      <c r="L22">
+        <v>0.492</v>
+      </c>
+      <c r="M22">
+        <v>0.55</v>
+      </c>
+      <c r="N22">
+        <v>0.506</v>
+      </c>
+      <c r="O22">
+        <v>0.556</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1360,9 +1348,6 @@
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P25">
         <v>0.445</v>
       </c>
@@ -1384,28 +1369,28 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O26">
-        <v>0.572</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="P26">
-        <v>0.617</v>
+        <v>0.55</v>
       </c>
       <c r="Q26">
-        <v>0.631</v>
+        <v>0.53</v>
       </c>
       <c r="R26">
-        <v>0.609</v>
+        <v>0.576</v>
       </c>
       <c r="S26">
-        <v>0.518</v>
+        <v>0.527</v>
       </c>
       <c r="T26">
-        <v>0.713</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1416,28 +1401,28 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O27">
-        <v>0.5649999999999999</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>0.55</v>
+        <v>0.998</v>
       </c>
       <c r="Q27">
-        <v>0.53</v>
+        <v>0.997</v>
       </c>
       <c r="R27">
-        <v>0.576</v>
+        <v>0.997</v>
       </c>
       <c r="S27">
-        <v>0.527</v>
+        <v>0.995</v>
       </c>
       <c r="T27">
-        <v>0.479</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1448,28 +1433,28 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O28">
-        <v>0.719</v>
+        <v>0.572</v>
       </c>
       <c r="P28">
-        <v>0.759</v>
+        <v>0.617</v>
       </c>
       <c r="Q28">
-        <v>0.731</v>
+        <v>0.631</v>
       </c>
       <c r="R28">
-        <v>0.8120000000000001</v>
+        <v>0.609</v>
       </c>
       <c r="S28">
-        <v>0.729</v>
+        <v>0.518</v>
       </c>
       <c r="T28">
-        <v>0.676</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1483,25 +1468,25 @@
         <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0.719</v>
       </c>
       <c r="P29">
-        <v>0.998</v>
+        <v>0.759</v>
       </c>
       <c r="Q29">
-        <v>0.997</v>
+        <v>0.731</v>
       </c>
       <c r="R29">
-        <v>0.997</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="S29">
-        <v>0.995</v>
+        <v>0.729</v>
       </c>
       <c r="T29">
-        <v>0.998</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1531,9 +1516,6 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H31">
         <v>0.644</v>
       </c>
@@ -1546,13 +1528,13 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>0.53</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1563,13 +1545,13 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H33">
-        <v>0.853</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1580,7 +1562,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -1708,9 +1690,6 @@
       <c r="C37" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H37">
         <v>0.629</v>
       </c>
@@ -1735,46 +1714,58 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>0.954</v>
+      </c>
+      <c r="F38">
+        <v>0.98</v>
+      </c>
+      <c r="G38">
+        <v>0.986</v>
       </c>
       <c r="H38">
-        <v>0.586</v>
+        <v>0.926</v>
+      </c>
+      <c r="I38">
+        <v>0.9409999999999999</v>
       </c>
       <c r="J38">
-        <v>0.582</v>
+        <v>0.969</v>
       </c>
       <c r="K38">
-        <v>0.614</v>
+        <v>0.968</v>
       </c>
       <c r="L38">
-        <v>0.731</v>
+        <v>0.981</v>
       </c>
       <c r="M38">
-        <v>0.733</v>
+        <v>0.978</v>
       </c>
       <c r="N38">
-        <v>0.741</v>
+        <v>0.965</v>
       </c>
       <c r="O38">
-        <v>0.695</v>
+        <v>0.962</v>
       </c>
       <c r="P38">
-        <v>0.475</v>
+        <v>0.973</v>
       </c>
       <c r="Q38">
-        <v>0.468</v>
+        <v>0.97</v>
       </c>
       <c r="R38">
-        <v>0.468</v>
+        <v>0.974</v>
       </c>
       <c r="S38">
-        <v>0.51</v>
+        <v>0.963</v>
       </c>
       <c r="T38">
-        <v>0.551</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1785,58 +1776,34 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39">
-        <v>0.954</v>
-      </c>
-      <c r="F39">
-        <v>0.98</v>
-      </c>
-      <c r="G39">
-        <v>0.986</v>
-      </c>
-      <c r="H39">
-        <v>0.926</v>
+        <v>45</v>
       </c>
       <c r="I39">
-        <v>0.9409999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="J39">
-        <v>0.969</v>
-      </c>
-      <c r="K39">
-        <v>0.968</v>
-      </c>
-      <c r="L39">
-        <v>0.981</v>
-      </c>
-      <c r="M39">
-        <v>0.978</v>
-      </c>
-      <c r="N39">
-        <v>0.965</v>
+        <v>0.959</v>
       </c>
       <c r="O39">
-        <v>0.962</v>
+        <v>0.573</v>
       </c>
       <c r="P39">
-        <v>0.973</v>
+        <v>0.532</v>
       </c>
       <c r="Q39">
-        <v>0.97</v>
+        <v>0.532</v>
       </c>
       <c r="R39">
-        <v>0.974</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="S39">
-        <v>0.963</v>
+        <v>0.506</v>
       </c>
       <c r="T39">
-        <v>0.966</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -1847,58 +1814,46 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40">
-        <v>0.593</v>
-      </c>
-      <c r="F40">
-        <v>0.583</v>
-      </c>
-      <c r="G40">
-        <v>0.747</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>0.617</v>
-      </c>
-      <c r="I40">
-        <v>0.759</v>
+        <v>0.586</v>
       </c>
       <c r="J40">
-        <v>0.728</v>
+        <v>0.582</v>
       </c>
       <c r="K40">
-        <v>0.694</v>
+        <v>0.614</v>
       </c>
       <c r="L40">
-        <v>0.8120000000000001</v>
+        <v>0.731</v>
       </c>
       <c r="M40">
-        <v>0.821</v>
+        <v>0.733</v>
       </c>
       <c r="N40">
-        <v>0.785</v>
+        <v>0.741</v>
       </c>
       <c r="O40">
-        <v>0.787</v>
+        <v>0.695</v>
       </c>
       <c r="P40">
-        <v>0.759</v>
+        <v>0.475</v>
       </c>
       <c r="Q40">
-        <v>0.763</v>
+        <v>0.468</v>
       </c>
       <c r="R40">
-        <v>0.737</v>
+        <v>0.468</v>
       </c>
       <c r="S40">
-        <v>0.746</v>
+        <v>0.51</v>
       </c>
       <c r="T40">
-        <v>0.729</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -1912,31 +1867,55 @@
         <v>41</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>0.593</v>
+      </c>
+      <c r="F41">
+        <v>0.583</v>
+      </c>
+      <c r="G41">
+        <v>0.747</v>
+      </c>
+      <c r="H41">
+        <v>0.617</v>
       </c>
       <c r="I41">
-        <v>0.871</v>
+        <v>0.759</v>
       </c>
       <c r="J41">
-        <v>0.959</v>
+        <v>0.728</v>
+      </c>
+      <c r="K41">
+        <v>0.694</v>
+      </c>
+      <c r="L41">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="M41">
+        <v>0.821</v>
+      </c>
+      <c r="N41">
+        <v>0.785</v>
       </c>
       <c r="O41">
-        <v>0.573</v>
+        <v>0.787</v>
       </c>
       <c r="P41">
-        <v>0.532</v>
+        <v>0.759</v>
       </c>
       <c r="Q41">
-        <v>0.532</v>
+        <v>0.763</v>
       </c>
       <c r="R41">
-        <v>0.5639999999999999</v>
+        <v>0.737</v>
       </c>
       <c r="S41">
-        <v>0.506</v>
+        <v>0.746</v>
       </c>
       <c r="T41">
-        <v>0.442</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2043,9 +2022,6 @@
       <c r="C44" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P44">
         <v>0.721</v>
       </c>
@@ -2067,43 +2043,43 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J45">
-        <v>0.825</v>
+        <v>0.491</v>
       </c>
       <c r="K45">
-        <v>0.872</v>
+        <v>0.572</v>
       </c>
       <c r="L45">
-        <v>0.86</v>
+        <v>0.658</v>
       </c>
       <c r="M45">
-        <v>0.76</v>
+        <v>0.851</v>
       </c>
       <c r="N45">
-        <v>0.746</v>
+        <v>0.67</v>
       </c>
       <c r="O45">
-        <v>0.759</v>
+        <v>0.556</v>
       </c>
       <c r="P45">
-        <v>0.99</v>
+        <v>0.472</v>
       </c>
       <c r="Q45">
-        <v>0.987</v>
+        <v>0.458</v>
       </c>
       <c r="R45">
-        <v>0.99</v>
+        <v>0.457</v>
       </c>
       <c r="S45">
-        <v>0.908</v>
+        <v>0.462</v>
       </c>
       <c r="T45">
-        <v>0.992</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2114,43 +2090,28 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J46">
-        <v>0.491</v>
-      </c>
-      <c r="K46">
-        <v>0.572</v>
-      </c>
-      <c r="L46">
-        <v>0.658</v>
-      </c>
-      <c r="M46">
-        <v>0.851</v>
-      </c>
-      <c r="N46">
+        <v>45</v>
+      </c>
+      <c r="O46">
+        <v>0.581</v>
+      </c>
+      <c r="P46">
+        <v>0.622</v>
+      </c>
+      <c r="Q46">
+        <v>0.633</v>
+      </c>
+      <c r="R46">
+        <v>0.601</v>
+      </c>
+      <c r="S46">
+        <v>0.494</v>
+      </c>
+      <c r="T46">
         <v>0.67</v>
-      </c>
-      <c r="O46">
-        <v>0.556</v>
-      </c>
-      <c r="P46">
-        <v>0.472</v>
-      </c>
-      <c r="Q46">
-        <v>0.458</v>
-      </c>
-      <c r="R46">
-        <v>0.457</v>
-      </c>
-      <c r="S46">
-        <v>0.462</v>
-      </c>
-      <c r="T46">
-        <v>0.517</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2161,43 +2122,43 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47">
-        <v>0.421</v>
+        <v>0.825</v>
       </c>
       <c r="K47">
-        <v>0.607</v>
+        <v>0.872</v>
       </c>
       <c r="L47">
-        <v>0.674</v>
+        <v>0.86</v>
       </c>
       <c r="M47">
-        <v>0.753</v>
+        <v>0.76</v>
       </c>
       <c r="N47">
-        <v>0.63</v>
+        <v>0.746</v>
       </c>
       <c r="O47">
-        <v>0.607</v>
+        <v>0.759</v>
       </c>
       <c r="P47">
-        <v>0.515</v>
+        <v>0.99</v>
       </c>
       <c r="Q47">
-        <v>0.534</v>
+        <v>0.987</v>
       </c>
       <c r="R47">
-        <v>0.524</v>
+        <v>0.99</v>
       </c>
       <c r="S47">
-        <v>0.453</v>
+        <v>0.908</v>
       </c>
       <c r="T47">
-        <v>0.5620000000000001</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2211,25 +2172,40 @@
         <v>41</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="J48">
+        <v>0.421</v>
+      </c>
+      <c r="K48">
+        <v>0.607</v>
+      </c>
+      <c r="L48">
+        <v>0.674</v>
+      </c>
+      <c r="M48">
+        <v>0.753</v>
+      </c>
+      <c r="N48">
+        <v>0.63</v>
       </c>
       <c r="O48">
-        <v>0.581</v>
+        <v>0.607</v>
       </c>
       <c r="P48">
-        <v>0.622</v>
+        <v>0.515</v>
       </c>
       <c r="Q48">
-        <v>0.633</v>
+        <v>0.534</v>
       </c>
       <c r="R48">
-        <v>0.601</v>
+        <v>0.524</v>
       </c>
       <c r="S48">
-        <v>0.494</v>
+        <v>0.453</v>
       </c>
       <c r="T48">
-        <v>0.67</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2303,9 +2279,6 @@
       <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P51">
         <v>0.473</v>
       </c>
@@ -2327,28 +2300,28 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O52">
-        <v>0.59</v>
+        <v>0.555</v>
       </c>
       <c r="P52">
-        <v>0.63</v>
+        <v>0.537</v>
       </c>
       <c r="Q52">
-        <v>0.635</v>
+        <v>0.541</v>
       </c>
       <c r="R52">
-        <v>0.59</v>
+        <v>0.538</v>
       </c>
       <c r="S52">
-        <v>0.507</v>
+        <v>0.538</v>
       </c>
       <c r="T52">
-        <v>0.6889999999999999</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2359,28 +2332,28 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O53">
-        <v>0.555</v>
+        <v>1</v>
       </c>
       <c r="P53">
-        <v>0.537</v>
+        <v>0.997</v>
       </c>
       <c r="Q53">
-        <v>0.541</v>
+        <v>0.997</v>
       </c>
       <c r="R53">
-        <v>0.538</v>
+        <v>0.997</v>
       </c>
       <c r="S53">
-        <v>0.538</v>
+        <v>0.994</v>
       </c>
       <c r="T53">
-        <v>0.42</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2391,28 +2364,28 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O54">
-        <v>0.719</v>
+        <v>0.59</v>
       </c>
       <c r="P54">
-        <v>0.736</v>
+        <v>0.63</v>
       </c>
       <c r="Q54">
-        <v>0.764</v>
+        <v>0.635</v>
       </c>
       <c r="R54">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="S54">
-        <v>0.745</v>
+        <v>0.507</v>
       </c>
       <c r="T54">
-        <v>0.6</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2426,25 +2399,25 @@
         <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>0.719</v>
       </c>
       <c r="P55">
-        <v>0.997</v>
+        <v>0.736</v>
       </c>
       <c r="Q55">
-        <v>0.997</v>
+        <v>0.764</v>
       </c>
       <c r="R55">
-        <v>0.997</v>
+        <v>0.8</v>
       </c>
       <c r="S55">
-        <v>0.994</v>
+        <v>0.745</v>
       </c>
       <c r="T55">
-        <v>0.998</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2566,9 +2539,6 @@
       <c r="C58" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H58">
         <v>0.531</v>
       </c>
@@ -2593,46 +2563,58 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <v>0.598</v>
+      </c>
+      <c r="F59">
+        <v>0.583</v>
+      </c>
+      <c r="G59">
+        <v>0.747</v>
       </c>
       <c r="H59">
-        <v>0.651</v>
+        <v>0.608</v>
+      </c>
+      <c r="I59">
+        <v>0.771</v>
       </c>
       <c r="J59">
-        <v>0.524</v>
+        <v>0.753</v>
       </c>
       <c r="K59">
-        <v>0.646</v>
+        <v>0.718</v>
       </c>
       <c r="L59">
         <v>0.791</v>
       </c>
       <c r="M59">
-        <v>0.765</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="N59">
-        <v>0.793</v>
+        <v>0.767</v>
       </c>
       <c r="O59">
-        <v>0.766</v>
+        <v>0.775</v>
       </c>
       <c r="P59">
-        <v>0.527</v>
+        <v>0.756</v>
       </c>
       <c r="Q59">
-        <v>0.542</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
-        <v>0.507</v>
+        <v>0.735</v>
       </c>
       <c r="S59">
-        <v>0.519</v>
+        <v>0.737</v>
       </c>
       <c r="T59">
-        <v>0.6929999999999999</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2643,58 +2625,34 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60">
-        <v>0.598</v>
-      </c>
-      <c r="F60">
-        <v>0.583</v>
-      </c>
-      <c r="G60">
-        <v>0.747</v>
-      </c>
-      <c r="H60">
-        <v>0.608</v>
+        <v>45</v>
       </c>
       <c r="I60">
-        <v>0.771</v>
+        <v>0.829</v>
       </c>
       <c r="J60">
-        <v>0.753</v>
-      </c>
-      <c r="K60">
-        <v>0.718</v>
-      </c>
-      <c r="L60">
-        <v>0.791</v>
-      </c>
-      <c r="M60">
+        <v>0.831</v>
+      </c>
+      <c r="O60">
+        <v>0.74</v>
+      </c>
+      <c r="P60">
+        <v>0.766</v>
+      </c>
+      <c r="Q60">
+        <v>0.751</v>
+      </c>
+      <c r="R60">
         <v>0.8169999999999999</v>
       </c>
-      <c r="N60">
-        <v>0.767</v>
-      </c>
-      <c r="O60">
-        <v>0.775</v>
-      </c>
-      <c r="P60">
-        <v>0.756</v>
-      </c>
-      <c r="Q60">
-        <v>0.75</v>
-      </c>
-      <c r="R60">
-        <v>0.735</v>
-      </c>
       <c r="S60">
-        <v>0.737</v>
+        <v>0.762</v>
       </c>
       <c r="T60">
-        <v>0.701</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2705,58 +2663,46 @@
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61">
-        <v>0.979</v>
-      </c>
-      <c r="F61">
-        <v>0.92</v>
-      </c>
-      <c r="G61">
-        <v>0.9419999999999999</v>
+        <v>46</v>
       </c>
       <c r="H61">
-        <v>0.919</v>
-      </c>
-      <c r="I61">
-        <v>0.955</v>
+        <v>0.651</v>
       </c>
       <c r="J61">
-        <v>0.964</v>
+        <v>0.524</v>
       </c>
       <c r="K61">
-        <v>0.949</v>
+        <v>0.646</v>
       </c>
       <c r="L61">
-        <v>0.967</v>
+        <v>0.791</v>
       </c>
       <c r="M61">
-        <v>0.964</v>
+        <v>0.765</v>
       </c>
       <c r="N61">
-        <v>0.954</v>
+        <v>0.793</v>
       </c>
       <c r="O61">
-        <v>0.96</v>
+        <v>0.766</v>
       </c>
       <c r="P61">
-        <v>0.965</v>
+        <v>0.527</v>
       </c>
       <c r="Q61">
-        <v>0.964</v>
+        <v>0.542</v>
       </c>
       <c r="R61">
-        <v>0.958</v>
+        <v>0.507</v>
       </c>
       <c r="S61">
-        <v>0.931</v>
+        <v>0.519</v>
       </c>
       <c r="T61">
-        <v>0.957</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2770,31 +2716,55 @@
         <v>41</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E62">
+        <v>0.979</v>
+      </c>
+      <c r="F62">
+        <v>0.92</v>
+      </c>
+      <c r="G62">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="H62">
+        <v>0.919</v>
       </c>
       <c r="I62">
-        <v>0.829</v>
+        <v>0.955</v>
       </c>
       <c r="J62">
-        <v>0.831</v>
+        <v>0.964</v>
+      </c>
+      <c r="K62">
+        <v>0.949</v>
+      </c>
+      <c r="L62">
+        <v>0.967</v>
+      </c>
+      <c r="M62">
+        <v>0.964</v>
+      </c>
+      <c r="N62">
+        <v>0.954</v>
       </c>
       <c r="O62">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
       <c r="P62">
-        <v>0.766</v>
+        <v>0.965</v>
       </c>
       <c r="Q62">
-        <v>0.751</v>
+        <v>0.964</v>
       </c>
       <c r="R62">
-        <v>0.8169999999999999</v>
+        <v>0.958</v>
       </c>
       <c r="S62">
-        <v>0.762</v>
+        <v>0.931</v>
       </c>
       <c r="T62">
-        <v>0.843</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2889,9 +2859,6 @@
       <c r="C65" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H65">
         <v>0.8070000000000001</v>
       </c>
@@ -2919,7 +2886,7 @@
         <v>39</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>0.974</v>
@@ -2966,40 +2933,31 @@
         <v>40</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E67">
-        <v>0.976</v>
-      </c>
-      <c r="H67">
-        <v>0.6889999999999999</v>
+        <v>45</v>
       </c>
       <c r="I67">
-        <v>0.828</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>0.746</v>
-      </c>
-      <c r="N67">
-        <v>0.74</v>
+        <v>0.982</v>
       </c>
       <c r="O67">
-        <v>0.775</v>
+        <v>0.59</v>
       </c>
       <c r="P67">
-        <v>0.786</v>
+        <v>0.604</v>
       </c>
       <c r="Q67">
-        <v>0.763</v>
+        <v>0.587</v>
       </c>
       <c r="R67">
-        <v>0.74</v>
+        <v>0.616</v>
       </c>
       <c r="S67">
-        <v>0.772</v>
+        <v>0.588</v>
       </c>
       <c r="T67">
-        <v>0.777</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3013,31 +2971,40 @@
         <v>41</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E68">
+        <v>0.976</v>
+      </c>
+      <c r="H68">
+        <v>0.6889999999999999</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0.828</v>
       </c>
       <c r="J68">
-        <v>0.982</v>
+        <v>0.746</v>
+      </c>
+      <c r="N68">
+        <v>0.74</v>
       </c>
       <c r="O68">
-        <v>0.59</v>
+        <v>0.775</v>
       </c>
       <c r="P68">
-        <v>0.604</v>
+        <v>0.786</v>
       </c>
       <c r="Q68">
-        <v>0.587</v>
+        <v>0.763</v>
       </c>
       <c r="R68">
-        <v>0.616</v>
+        <v>0.74</v>
       </c>
       <c r="S68">
-        <v>0.588</v>
+        <v>0.772</v>
       </c>
       <c r="T68">
-        <v>0.543</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3108,9 +3075,6 @@
       <c r="C71" t="s">
         <v>38</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P71">
         <v>0.5659999999999999</v>
       </c>
@@ -3132,25 +3096,25 @@
         <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O72">
-        <v>0.675</v>
+        <v>0.964</v>
       </c>
       <c r="P72">
-        <v>0.455</v>
+        <v>0.963</v>
       </c>
       <c r="Q72">
-        <v>0.442</v>
+        <v>0.964</v>
       </c>
       <c r="R72">
-        <v>0.449</v>
+        <v>0.968</v>
       </c>
       <c r="S72">
-        <v>0.418</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3161,25 +3125,25 @@
         <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O73">
-        <v>0.964</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P73">
-        <v>0.963</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="Q73">
-        <v>0.964</v>
+        <v>0.543</v>
       </c>
       <c r="R73">
-        <v>0.968</v>
+        <v>0.57</v>
       </c>
       <c r="S73">
-        <v>0.946</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3190,25 +3154,25 @@
         <v>29</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O74">
-        <v>0.8149999999999999</v>
+        <v>0.675</v>
       </c>
       <c r="P74">
-        <v>0.786</v>
+        <v>0.455</v>
       </c>
       <c r="Q74">
-        <v>0.785</v>
+        <v>0.442</v>
       </c>
       <c r="R74">
-        <v>0.746</v>
+        <v>0.449</v>
       </c>
       <c r="S74">
-        <v>0.854</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3222,22 +3186,22 @@
         <v>41</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O75">
-        <v>0.5600000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="P75">
-        <v>0.5659999999999999</v>
+        <v>0.786</v>
       </c>
       <c r="Q75">
-        <v>0.543</v>
+        <v>0.785</v>
       </c>
       <c r="R75">
-        <v>0.57</v>
+        <v>0.746</v>
       </c>
       <c r="S75">
-        <v>0.6909999999999999</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3350,9 +3314,6 @@
       <c r="C78" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H78">
         <v>0.5679999999999999</v>
       </c>
@@ -3377,46 +3338,49 @@
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>0.604</v>
+        <v>0.827</v>
+      </c>
+      <c r="I79">
+        <v>0.883</v>
       </c>
       <c r="J79">
-        <v>0.569</v>
+        <v>0.914</v>
       </c>
       <c r="K79">
-        <v>0.597</v>
+        <v>0.906</v>
       </c>
       <c r="L79">
-        <v>0.72</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="M79">
-        <v>0.732</v>
+        <v>0.92</v>
       </c>
       <c r="N79">
-        <v>0.742</v>
+        <v>0.903</v>
       </c>
       <c r="O79">
-        <v>0.698</v>
+        <v>0.907</v>
       </c>
       <c r="P79">
-        <v>0.473</v>
+        <v>0.947</v>
       </c>
       <c r="Q79">
-        <v>0.45</v>
+        <v>0.955</v>
       </c>
       <c r="R79">
-        <v>0.445</v>
+        <v>0.965</v>
       </c>
       <c r="S79">
-        <v>0.498</v>
+        <v>0.957</v>
       </c>
       <c r="T79">
-        <v>0.511</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3427,49 +3391,34 @@
         <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H80">
-        <v>0.827</v>
+        <v>45</v>
       </c>
       <c r="I80">
-        <v>0.883</v>
+        <v>0.714</v>
       </c>
       <c r="J80">
-        <v>0.914</v>
-      </c>
-      <c r="K80">
-        <v>0.906</v>
-      </c>
-      <c r="L80">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="M80">
-        <v>0.92</v>
-      </c>
-      <c r="N80">
-        <v>0.903</v>
+        <v>0.922</v>
       </c>
       <c r="O80">
-        <v>0.907</v>
+        <v>0.554</v>
       </c>
       <c r="P80">
-        <v>0.947</v>
+        <v>0.571</v>
       </c>
       <c r="Q80">
-        <v>0.955</v>
+        <v>0.538</v>
       </c>
       <c r="R80">
-        <v>0.965</v>
+        <v>0.555</v>
       </c>
       <c r="S80">
-        <v>0.957</v>
+        <v>0.555</v>
       </c>
       <c r="T80">
-        <v>0.957</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3480,49 +3429,46 @@
         <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="I81">
-        <v>0.789</v>
+        <v>0.604</v>
       </c>
       <c r="J81">
-        <v>0.757</v>
+        <v>0.569</v>
       </c>
       <c r="K81">
-        <v>0.709</v>
+        <v>0.597</v>
       </c>
       <c r="L81">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="M81">
-        <v>0.841</v>
+        <v>0.732</v>
       </c>
       <c r="N81">
-        <v>0.801</v>
+        <v>0.742</v>
       </c>
       <c r="O81">
-        <v>0.796</v>
+        <v>0.698</v>
       </c>
       <c r="P81">
-        <v>0.794</v>
+        <v>0.473</v>
       </c>
       <c r="Q81">
-        <v>0.767</v>
+        <v>0.45</v>
       </c>
       <c r="R81">
-        <v>0.734</v>
+        <v>0.445</v>
       </c>
       <c r="S81">
-        <v>0.778</v>
+        <v>0.498</v>
       </c>
       <c r="T81">
-        <v>0.773</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3536,31 +3482,46 @@
         <v>41</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="H82">
+        <v>0.6830000000000001</v>
       </c>
       <c r="I82">
-        <v>0.714</v>
+        <v>0.789</v>
       </c>
       <c r="J82">
-        <v>0.922</v>
+        <v>0.757</v>
+      </c>
+      <c r="K82">
+        <v>0.709</v>
+      </c>
+      <c r="L82">
+        <v>0.82</v>
+      </c>
+      <c r="M82">
+        <v>0.841</v>
+      </c>
+      <c r="N82">
+        <v>0.801</v>
       </c>
       <c r="O82">
-        <v>0.554</v>
+        <v>0.796</v>
       </c>
       <c r="P82">
-        <v>0.571</v>
+        <v>0.794</v>
       </c>
       <c r="Q82">
-        <v>0.538</v>
+        <v>0.767</v>
       </c>
       <c r="R82">
-        <v>0.555</v>
+        <v>0.734</v>
       </c>
       <c r="S82">
-        <v>0.555</v>
+        <v>0.778</v>
       </c>
       <c r="T82">
-        <v>0.46</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3588,13 +3549,13 @@
         <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O84">
-        <v>0.738</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3605,13 +3566,13 @@
         <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O85">
-        <v>0.9360000000000001</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -3622,7 +3583,7 @@
         <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>47</v>
@@ -3708,9 +3669,6 @@
       <c r="C89" t="s">
         <v>38</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H89">
         <v>0.832</v>
       </c>
@@ -3723,31 +3681,31 @@
         <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H90">
-        <v>0.698</v>
+        <v>0.62</v>
       </c>
       <c r="J90">
-        <v>0.681</v>
+        <v>0.718</v>
       </c>
       <c r="K90">
-        <v>0.743</v>
+        <v>0.676</v>
       </c>
       <c r="L90">
-        <v>0.841</v>
+        <v>0.763</v>
       </c>
       <c r="M90">
-        <v>0.737</v>
+        <v>0.547</v>
       </c>
       <c r="N90">
-        <v>0.821</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="O90">
-        <v>0.785</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3758,31 +3716,31 @@
         <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H91">
-        <v>0.62</v>
+        <v>0.698</v>
       </c>
       <c r="J91">
-        <v>0.718</v>
+        <v>0.681</v>
       </c>
       <c r="K91">
-        <v>0.676</v>
+        <v>0.743</v>
       </c>
       <c r="L91">
-        <v>0.763</v>
+        <v>0.841</v>
       </c>
       <c r="M91">
-        <v>0.547</v>
+        <v>0.737</v>
       </c>
       <c r="N91">
-        <v>0.8080000000000001</v>
+        <v>0.821</v>
       </c>
       <c r="O91">
-        <v>0.891</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -3793,7 +3751,7 @@
         <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>47</v>
@@ -3930,9 +3888,6 @@
       <c r="C95" t="s">
         <v>38</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H95">
         <v>0.548</v>
       </c>
@@ -3957,46 +3912,49 @@
         <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H96">
-        <v>0.631</v>
+        <v>0.638</v>
+      </c>
+      <c r="I96">
+        <v>0.779</v>
       </c>
       <c r="J96">
-        <v>0.527</v>
+        <v>0.729</v>
       </c>
       <c r="K96">
-        <v>0.674</v>
+        <v>0.681</v>
       </c>
       <c r="L96">
-        <v>0.796</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="M96">
-        <v>0.758</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="N96">
-        <v>0.796</v>
+        <v>0.788</v>
       </c>
       <c r="O96">
-        <v>0.754</v>
+        <v>0.797</v>
       </c>
       <c r="P96">
-        <v>0.514</v>
+        <v>0.777</v>
       </c>
       <c r="Q96">
-        <v>0.532</v>
+        <v>0.771</v>
       </c>
       <c r="R96">
-        <v>0.524</v>
+        <v>0.737</v>
       </c>
       <c r="S96">
-        <v>0.524</v>
+        <v>0.781</v>
       </c>
       <c r="T96">
-        <v>0.58</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -4007,49 +3965,34 @@
         <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H97">
-        <v>0.638</v>
+        <v>45</v>
       </c>
       <c r="I97">
-        <v>0.779</v>
+        <v>0.792</v>
       </c>
       <c r="J97">
-        <v>0.729</v>
-      </c>
-      <c r="K97">
-        <v>0.681</v>
-      </c>
-      <c r="L97">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="M97">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="N97">
-        <v>0.788</v>
+        <v>0.827</v>
       </c>
       <c r="O97">
-        <v>0.797</v>
+        <v>0.714</v>
       </c>
       <c r="P97">
-        <v>0.777</v>
+        <v>0.745</v>
       </c>
       <c r="Q97">
-        <v>0.771</v>
+        <v>0.743</v>
       </c>
       <c r="R97">
-        <v>0.737</v>
+        <v>0.801</v>
       </c>
       <c r="S97">
-        <v>0.781</v>
+        <v>0.725</v>
       </c>
       <c r="T97">
-        <v>0.777</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -4060,49 +4003,46 @@
         <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H98">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="I98">
-        <v>0.957</v>
+        <v>0.631</v>
       </c>
       <c r="J98">
-        <v>0.971</v>
+        <v>0.527</v>
       </c>
       <c r="K98">
-        <v>0.975</v>
+        <v>0.674</v>
       </c>
       <c r="L98">
-        <v>0.977</v>
+        <v>0.796</v>
       </c>
       <c r="M98">
-        <v>0.97</v>
+        <v>0.758</v>
       </c>
       <c r="N98">
-        <v>0.972</v>
+        <v>0.796</v>
       </c>
       <c r="O98">
-        <v>0.971</v>
+        <v>0.754</v>
       </c>
       <c r="P98">
-        <v>0.974</v>
+        <v>0.514</v>
       </c>
       <c r="Q98">
-        <v>0.979</v>
+        <v>0.532</v>
       </c>
       <c r="R98">
-        <v>0.97</v>
+        <v>0.524</v>
       </c>
       <c r="S98">
-        <v>0.959</v>
+        <v>0.524</v>
       </c>
       <c r="T98">
-        <v>0.965</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4116,31 +4056,46 @@
         <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="H99">
+        <v>0.9350000000000001</v>
       </c>
       <c r="I99">
-        <v>0.792</v>
+        <v>0.957</v>
       </c>
       <c r="J99">
-        <v>0.827</v>
+        <v>0.971</v>
+      </c>
+      <c r="K99">
+        <v>0.975</v>
+      </c>
+      <c r="L99">
+        <v>0.977</v>
+      </c>
+      <c r="M99">
+        <v>0.97</v>
+      </c>
+      <c r="N99">
+        <v>0.972</v>
       </c>
       <c r="O99">
-        <v>0.714</v>
+        <v>0.971</v>
       </c>
       <c r="P99">
-        <v>0.745</v>
+        <v>0.974</v>
       </c>
       <c r="Q99">
-        <v>0.743</v>
+        <v>0.979</v>
       </c>
       <c r="R99">
-        <v>0.801</v>
+        <v>0.97</v>
       </c>
       <c r="S99">
-        <v>0.725</v>
+        <v>0.959</v>
       </c>
       <c r="T99">
-        <v>0.613</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -4253,9 +4208,6 @@
       <c r="C102" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H102">
         <v>0.5639999999999999</v>
       </c>
@@ -4280,46 +4232,49 @@
         <v>34</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H103">
-        <v>0.615</v>
+        <v>0.911</v>
+      </c>
+      <c r="I103">
+        <v>0.925</v>
       </c>
       <c r="J103">
-        <v>0.573</v>
+        <v>0.96</v>
       </c>
       <c r="K103">
-        <v>0.597</v>
+        <v>0.969</v>
       </c>
       <c r="L103">
-        <v>0.724</v>
+        <v>0.976</v>
       </c>
       <c r="M103">
-        <v>0.725</v>
+        <v>0.979</v>
       </c>
       <c r="N103">
-        <v>0.741</v>
+        <v>0.959</v>
       </c>
       <c r="O103">
-        <v>0.705</v>
+        <v>0.951</v>
       </c>
       <c r="P103">
-        <v>0.476</v>
+        <v>0.97</v>
       </c>
       <c r="Q103">
-        <v>0.442</v>
+        <v>0.968</v>
       </c>
       <c r="R103">
-        <v>0.458</v>
+        <v>0.974</v>
       </c>
       <c r="S103">
-        <v>0.518</v>
+        <v>0.958</v>
       </c>
       <c r="T103">
-        <v>0.541</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -4330,49 +4285,34 @@
         <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H104">
-        <v>0.911</v>
+        <v>45</v>
       </c>
       <c r="I104">
-        <v>0.925</v>
+        <v>0.855</v>
       </c>
       <c r="J104">
-        <v>0.96</v>
-      </c>
-      <c r="K104">
-        <v>0.969</v>
-      </c>
-      <c r="L104">
-        <v>0.976</v>
-      </c>
-      <c r="M104">
-        <v>0.979</v>
-      </c>
-      <c r="N104">
-        <v>0.959</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="O104">
-        <v>0.951</v>
+        <v>0.552</v>
       </c>
       <c r="P104">
-        <v>0.97</v>
+        <v>0.548</v>
       </c>
       <c r="Q104">
-        <v>0.968</v>
+        <v>0.532</v>
       </c>
       <c r="R104">
-        <v>0.974</v>
+        <v>0.551</v>
       </c>
       <c r="S104">
-        <v>0.958</v>
+        <v>0.537</v>
       </c>
       <c r="T104">
-        <v>0.955</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -4383,49 +4323,46 @@
         <v>34</v>
       </c>
       <c r="C105" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H105">
-        <v>0.618</v>
-      </c>
-      <c r="I105">
-        <v>0.759</v>
+        <v>0.615</v>
       </c>
       <c r="J105">
-        <v>0.746</v>
+        <v>0.573</v>
       </c>
       <c r="K105">
-        <v>0.679</v>
+        <v>0.597</v>
       </c>
       <c r="L105">
-        <v>0.805</v>
+        <v>0.724</v>
       </c>
       <c r="M105">
-        <v>0.8100000000000001</v>
+        <v>0.725</v>
       </c>
       <c r="N105">
-        <v>0.773</v>
+        <v>0.741</v>
       </c>
       <c r="O105">
-        <v>0.8080000000000001</v>
+        <v>0.705</v>
       </c>
       <c r="P105">
-        <v>0.775</v>
+        <v>0.476</v>
       </c>
       <c r="Q105">
-        <v>0.769</v>
+        <v>0.442</v>
       </c>
       <c r="R105">
-        <v>0.735</v>
+        <v>0.458</v>
       </c>
       <c r="S105">
-        <v>0.774</v>
+        <v>0.518</v>
       </c>
       <c r="T105">
-        <v>0.754</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -4439,31 +4376,46 @@
         <v>41</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="H106">
+        <v>0.618</v>
       </c>
       <c r="I106">
-        <v>0.855</v>
+        <v>0.759</v>
       </c>
       <c r="J106">
-        <v>0.9419999999999999</v>
+        <v>0.746</v>
+      </c>
+      <c r="K106">
+        <v>0.679</v>
+      </c>
+      <c r="L106">
+        <v>0.805</v>
+      </c>
+      <c r="M106">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N106">
+        <v>0.773</v>
       </c>
       <c r="O106">
-        <v>0.552</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="P106">
-        <v>0.548</v>
+        <v>0.775</v>
       </c>
       <c r="Q106">
-        <v>0.532</v>
+        <v>0.769</v>
       </c>
       <c r="R106">
-        <v>0.551</v>
+        <v>0.735</v>
       </c>
       <c r="S106">
-        <v>0.537</v>
+        <v>0.774</v>
       </c>
       <c r="T106">
-        <v>0.462</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -4519,9 +4471,6 @@
       <c r="C109" t="s">
         <v>38</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P109">
         <v>0.511</v>
       </c>
@@ -4537,19 +4486,19 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O110">
-        <v>0.453</v>
+        <v>0.824</v>
       </c>
       <c r="P110">
-        <v>0.506</v>
+        <v>0.773</v>
       </c>
       <c r="Q110">
-        <v>0.531</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -4560,19 +4509,19 @@
         <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O111">
-        <v>0.824</v>
+        <v>0.723</v>
       </c>
       <c r="P111">
-        <v>0.773</v>
+        <v>0.743</v>
       </c>
       <c r="Q111">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -4583,19 +4532,19 @@
         <v>35</v>
       </c>
       <c r="C112" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O112">
-        <v>0.99</v>
+        <v>0.453</v>
       </c>
       <c r="P112">
-        <v>0.969</v>
+        <v>0.506</v>
       </c>
       <c r="Q112">
-        <v>0.977</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -4609,132 +4558,116 @@
         <v>41</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O113">
-        <v>0.723</v>
+        <v>0.99</v>
       </c>
       <c r="P113">
-        <v>0.743</v>
+        <v>0.969</v>
       </c>
       <c r="Q113">
-        <v>0.768</v>
+        <v>0.977</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
-    <hyperlink ref="D104" r:id="rId103"/>
-    <hyperlink ref="D105" r:id="rId104"/>
-    <hyperlink ref="D106" r:id="rId105"/>
-    <hyperlink ref="D107" r:id="rId106"/>
-    <hyperlink ref="D108" r:id="rId107"/>
-    <hyperlink ref="D109" r:id="rId108"/>
-    <hyperlink ref="D110" r:id="rId109"/>
-    <hyperlink ref="D111" r:id="rId110"/>
-    <hyperlink ref="D112" r:id="rId111"/>
-    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D19" r:id="rId15"/>
+    <hyperlink ref="D20" r:id="rId16"/>
+    <hyperlink ref="D21" r:id="rId17"/>
+    <hyperlink ref="D22" r:id="rId18"/>
+    <hyperlink ref="D23" r:id="rId19"/>
+    <hyperlink ref="D24" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21"/>
+    <hyperlink ref="D27" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D30" r:id="rId25"/>
+    <hyperlink ref="D32" r:id="rId26"/>
+    <hyperlink ref="D33" r:id="rId27"/>
+    <hyperlink ref="D34" r:id="rId28"/>
+    <hyperlink ref="D35" r:id="rId29"/>
+    <hyperlink ref="D36" r:id="rId30"/>
+    <hyperlink ref="D38" r:id="rId31"/>
+    <hyperlink ref="D39" r:id="rId32"/>
+    <hyperlink ref="D40" r:id="rId33"/>
+    <hyperlink ref="D41" r:id="rId34"/>
+    <hyperlink ref="D42" r:id="rId35"/>
+    <hyperlink ref="D43" r:id="rId36"/>
+    <hyperlink ref="D45" r:id="rId37"/>
+    <hyperlink ref="D46" r:id="rId38"/>
+    <hyperlink ref="D47" r:id="rId39"/>
+    <hyperlink ref="D48" r:id="rId40"/>
+    <hyperlink ref="D49" r:id="rId41"/>
+    <hyperlink ref="D50" r:id="rId42"/>
+    <hyperlink ref="D52" r:id="rId43"/>
+    <hyperlink ref="D53" r:id="rId44"/>
+    <hyperlink ref="D54" r:id="rId45"/>
+    <hyperlink ref="D55" r:id="rId46"/>
+    <hyperlink ref="D56" r:id="rId47"/>
+    <hyperlink ref="D57" r:id="rId48"/>
+    <hyperlink ref="D59" r:id="rId49"/>
+    <hyperlink ref="D60" r:id="rId50"/>
+    <hyperlink ref="D61" r:id="rId51"/>
+    <hyperlink ref="D62" r:id="rId52"/>
+    <hyperlink ref="D63" r:id="rId53"/>
+    <hyperlink ref="D64" r:id="rId54"/>
+    <hyperlink ref="D66" r:id="rId55"/>
+    <hyperlink ref="D67" r:id="rId56"/>
+    <hyperlink ref="D68" r:id="rId57"/>
+    <hyperlink ref="D69" r:id="rId58"/>
+    <hyperlink ref="D70" r:id="rId59"/>
+    <hyperlink ref="D72" r:id="rId60"/>
+    <hyperlink ref="D73" r:id="rId61"/>
+    <hyperlink ref="D74" r:id="rId62"/>
+    <hyperlink ref="D75" r:id="rId63"/>
+    <hyperlink ref="D76" r:id="rId64"/>
+    <hyperlink ref="D77" r:id="rId65"/>
+    <hyperlink ref="D79" r:id="rId66"/>
+    <hyperlink ref="D80" r:id="rId67"/>
+    <hyperlink ref="D81" r:id="rId68"/>
+    <hyperlink ref="D82" r:id="rId69"/>
+    <hyperlink ref="D83" r:id="rId70"/>
+    <hyperlink ref="D84" r:id="rId71"/>
+    <hyperlink ref="D85" r:id="rId72"/>
+    <hyperlink ref="D86" r:id="rId73"/>
+    <hyperlink ref="D87" r:id="rId74"/>
+    <hyperlink ref="D88" r:id="rId75"/>
+    <hyperlink ref="D90" r:id="rId76"/>
+    <hyperlink ref="D91" r:id="rId77"/>
+    <hyperlink ref="D92" r:id="rId78"/>
+    <hyperlink ref="D93" r:id="rId79"/>
+    <hyperlink ref="D94" r:id="rId80"/>
+    <hyperlink ref="D96" r:id="rId81"/>
+    <hyperlink ref="D97" r:id="rId82"/>
+    <hyperlink ref="D98" r:id="rId83"/>
+    <hyperlink ref="D99" r:id="rId84"/>
+    <hyperlink ref="D100" r:id="rId85"/>
+    <hyperlink ref="D101" r:id="rId86"/>
+    <hyperlink ref="D103" r:id="rId87"/>
+    <hyperlink ref="D104" r:id="rId88"/>
+    <hyperlink ref="D105" r:id="rId89"/>
+    <hyperlink ref="D106" r:id="rId90"/>
+    <hyperlink ref="D107" r:id="rId91"/>
+    <hyperlink ref="D108" r:id="rId92"/>
+    <hyperlink ref="D110" r:id="rId93"/>
+    <hyperlink ref="D111" r:id="rId94"/>
+    <hyperlink ref="D112" r:id="rId95"/>
+    <hyperlink ref="D113" r:id="rId96"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ep/ep/export/flourish/Joint_party_group.xlsx
+++ b/ep/ep/export/flourish/Joint_party_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="49">
   <si>
     <t>name1</t>
   </si>
@@ -130,7 +130,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
@@ -670,6 +673,9 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H4">
         <v>0.543</v>
       </c>
@@ -697,7 +703,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>0.715</v>
@@ -732,7 +738,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6">
         <v>0.723</v>
@@ -764,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>0.597</v>
@@ -799,7 +805,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>0.741</v>
@@ -894,6 +900,9 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P11">
         <v>0.501</v>
       </c>
@@ -918,7 +927,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O12">
         <v>0.853</v>
@@ -950,7 +959,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O13">
         <v>0.715</v>
@@ -982,7 +991,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14">
         <v>0.425</v>
@@ -1014,7 +1023,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15">
         <v>0.987</v>
@@ -1124,6 +1133,9 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H18">
         <v>0.57</v>
       </c>
@@ -1139,7 +1151,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>0.831</v>
@@ -1186,7 +1198,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I20">
         <v>0.7</v>
@@ -1206,7 +1218,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21">
         <v>0.604</v>
@@ -1241,7 +1253,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>0.715</v>
@@ -1348,6 +1360,9 @@
       <c r="C25" t="s">
         <v>38</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P25">
         <v>0.445</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O26">
         <v>0.5649999999999999</v>
@@ -1404,7 +1419,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1436,7 +1451,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O28">
         <v>0.572</v>
@@ -1468,7 +1483,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O29">
         <v>0.719</v>
@@ -1516,6 +1531,9 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H31">
         <v>0.644</v>
       </c>
@@ -1531,7 +1549,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <v>0.853</v>
@@ -1548,7 +1566,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>0.53</v>
@@ -1565,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34">
         <v>0.543</v>
@@ -1690,6 +1708,9 @@
       <c r="C37" t="s">
         <v>38</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H37">
         <v>0.629</v>
       </c>
@@ -1717,7 +1738,7 @@
         <v>39</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38">
         <v>0.954</v>
@@ -1779,7 +1800,7 @@
         <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I39">
         <v>0.871</v>
@@ -1817,7 +1838,7 @@
         <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40">
         <v>0.586</v>
@@ -1867,7 +1888,7 @@
         <v>41</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>0.593</v>
@@ -2022,6 +2043,9 @@
       <c r="C44" t="s">
         <v>38</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P44">
         <v>0.721</v>
       </c>
@@ -2046,7 +2070,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>0.491</v>
@@ -2093,7 +2117,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O46">
         <v>0.581</v>
@@ -2125,7 +2149,7 @@
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>0.825</v>
@@ -2172,7 +2196,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>0.421</v>
@@ -2279,6 +2303,9 @@
       <c r="C51" t="s">
         <v>38</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P51">
         <v>0.473</v>
       </c>
@@ -2303,7 +2330,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O52">
         <v>0.555</v>
@@ -2335,7 +2362,7 @@
         <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -2367,7 +2394,7 @@
         <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O54">
         <v>0.59</v>
@@ -2399,7 +2426,7 @@
         <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O55">
         <v>0.719</v>
@@ -2539,6 +2566,9 @@
       <c r="C58" t="s">
         <v>38</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H58">
         <v>0.531</v>
       </c>
@@ -2566,7 +2596,7 @@
         <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E59">
         <v>0.598</v>
@@ -2628,7 +2658,7 @@
         <v>40</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I60">
         <v>0.829</v>
@@ -2666,7 +2696,7 @@
         <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61">
         <v>0.651</v>
@@ -2716,7 +2746,7 @@
         <v>41</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E62">
         <v>0.979</v>
@@ -2859,6 +2889,9 @@
       <c r="C65" t="s">
         <v>38</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H65">
         <v>0.8070000000000001</v>
       </c>
@@ -2886,7 +2919,7 @@
         <v>39</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E66">
         <v>0.974</v>
@@ -2933,7 +2966,7 @@
         <v>40</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -2971,7 +3004,7 @@
         <v>41</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>0.976</v>
@@ -3075,6 +3108,9 @@
       <c r="C71" t="s">
         <v>38</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P71">
         <v>0.5659999999999999</v>
       </c>
@@ -3099,7 +3135,7 @@
         <v>39</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O72">
         <v>0.964</v>
@@ -3128,7 +3164,7 @@
         <v>40</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O73">
         <v>0.5600000000000001</v>
@@ -3157,7 +3193,7 @@
         <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O74">
         <v>0.675</v>
@@ -3186,7 +3222,7 @@
         <v>41</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O75">
         <v>0.8149999999999999</v>
@@ -3314,6 +3350,9 @@
       <c r="C78" t="s">
         <v>38</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H78">
         <v>0.5679999999999999</v>
       </c>
@@ -3341,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H79">
         <v>0.827</v>
@@ -3394,7 +3433,7 @@
         <v>40</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I80">
         <v>0.714</v>
@@ -3432,7 +3471,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81">
         <v>0.604</v>
@@ -3482,7 +3521,7 @@
         <v>41</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H82">
         <v>0.6830000000000001</v>
@@ -3552,7 +3591,7 @@
         <v>39</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O84">
         <v>0.9360000000000001</v>
@@ -3569,7 +3608,7 @@
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O85">
         <v>0.738</v>
@@ -3586,7 +3625,7 @@
         <v>41</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O86">
         <v>0.767</v>
@@ -3669,6 +3708,9 @@
       <c r="C89" t="s">
         <v>38</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H89">
         <v>0.832</v>
       </c>
@@ -3684,7 +3726,7 @@
         <v>39</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H90">
         <v>0.62</v>
@@ -3719,7 +3761,7 @@
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91">
         <v>0.698</v>
@@ -3754,7 +3796,7 @@
         <v>41</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H92">
         <v>0.573</v>
@@ -3888,6 +3930,9 @@
       <c r="C95" t="s">
         <v>38</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H95">
         <v>0.548</v>
       </c>
@@ -3915,7 +3960,7 @@
         <v>39</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H96">
         <v>0.638</v>
@@ -3968,7 +4013,7 @@
         <v>40</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I97">
         <v>0.792</v>
@@ -4006,7 +4051,7 @@
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98">
         <v>0.631</v>
@@ -4056,7 +4101,7 @@
         <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H99">
         <v>0.9350000000000001</v>
@@ -4208,6 +4253,9 @@
       <c r="C102" t="s">
         <v>38</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H102">
         <v>0.5639999999999999</v>
       </c>
@@ -4235,7 +4283,7 @@
         <v>39</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>0.911</v>
@@ -4288,7 +4336,7 @@
         <v>40</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I104">
         <v>0.855</v>
@@ -4326,7 +4374,7 @@
         <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105">
         <v>0.615</v>
@@ -4376,7 +4424,7 @@
         <v>41</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H106">
         <v>0.618</v>
@@ -4471,6 +4519,9 @@
       <c r="C109" t="s">
         <v>38</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P109">
         <v>0.511</v>
       </c>
@@ -4489,7 +4540,7 @@
         <v>39</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O110">
         <v>0.824</v>
@@ -4512,7 +4563,7 @@
         <v>40</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O111">
         <v>0.723</v>
@@ -4535,7 +4586,7 @@
         <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O112">
         <v>0.453</v>
@@ -4558,7 +4609,7 @@
         <v>41</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O113">
         <v>0.99</v>
@@ -4574,100 +4625,116 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D17" r:id="rId14"/>
-    <hyperlink ref="D19" r:id="rId15"/>
-    <hyperlink ref="D20" r:id="rId16"/>
-    <hyperlink ref="D21" r:id="rId17"/>
-    <hyperlink ref="D22" r:id="rId18"/>
-    <hyperlink ref="D23" r:id="rId19"/>
-    <hyperlink ref="D24" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21"/>
-    <hyperlink ref="D27" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D30" r:id="rId25"/>
-    <hyperlink ref="D32" r:id="rId26"/>
-    <hyperlink ref="D33" r:id="rId27"/>
-    <hyperlink ref="D34" r:id="rId28"/>
-    <hyperlink ref="D35" r:id="rId29"/>
-    <hyperlink ref="D36" r:id="rId30"/>
-    <hyperlink ref="D38" r:id="rId31"/>
-    <hyperlink ref="D39" r:id="rId32"/>
-    <hyperlink ref="D40" r:id="rId33"/>
-    <hyperlink ref="D41" r:id="rId34"/>
-    <hyperlink ref="D42" r:id="rId35"/>
-    <hyperlink ref="D43" r:id="rId36"/>
-    <hyperlink ref="D45" r:id="rId37"/>
-    <hyperlink ref="D46" r:id="rId38"/>
-    <hyperlink ref="D47" r:id="rId39"/>
-    <hyperlink ref="D48" r:id="rId40"/>
-    <hyperlink ref="D49" r:id="rId41"/>
-    <hyperlink ref="D50" r:id="rId42"/>
-    <hyperlink ref="D52" r:id="rId43"/>
-    <hyperlink ref="D53" r:id="rId44"/>
-    <hyperlink ref="D54" r:id="rId45"/>
-    <hyperlink ref="D55" r:id="rId46"/>
-    <hyperlink ref="D56" r:id="rId47"/>
-    <hyperlink ref="D57" r:id="rId48"/>
-    <hyperlink ref="D59" r:id="rId49"/>
-    <hyperlink ref="D60" r:id="rId50"/>
-    <hyperlink ref="D61" r:id="rId51"/>
-    <hyperlink ref="D62" r:id="rId52"/>
-    <hyperlink ref="D63" r:id="rId53"/>
-    <hyperlink ref="D64" r:id="rId54"/>
-    <hyperlink ref="D66" r:id="rId55"/>
-    <hyperlink ref="D67" r:id="rId56"/>
-    <hyperlink ref="D68" r:id="rId57"/>
-    <hyperlink ref="D69" r:id="rId58"/>
-    <hyperlink ref="D70" r:id="rId59"/>
-    <hyperlink ref="D72" r:id="rId60"/>
-    <hyperlink ref="D73" r:id="rId61"/>
-    <hyperlink ref="D74" r:id="rId62"/>
-    <hyperlink ref="D75" r:id="rId63"/>
-    <hyperlink ref="D76" r:id="rId64"/>
-    <hyperlink ref="D77" r:id="rId65"/>
-    <hyperlink ref="D79" r:id="rId66"/>
-    <hyperlink ref="D80" r:id="rId67"/>
-    <hyperlink ref="D81" r:id="rId68"/>
-    <hyperlink ref="D82" r:id="rId69"/>
-    <hyperlink ref="D83" r:id="rId70"/>
-    <hyperlink ref="D84" r:id="rId71"/>
-    <hyperlink ref="D85" r:id="rId72"/>
-    <hyperlink ref="D86" r:id="rId73"/>
-    <hyperlink ref="D87" r:id="rId74"/>
-    <hyperlink ref="D88" r:id="rId75"/>
-    <hyperlink ref="D90" r:id="rId76"/>
-    <hyperlink ref="D91" r:id="rId77"/>
-    <hyperlink ref="D92" r:id="rId78"/>
-    <hyperlink ref="D93" r:id="rId79"/>
-    <hyperlink ref="D94" r:id="rId80"/>
-    <hyperlink ref="D96" r:id="rId81"/>
-    <hyperlink ref="D97" r:id="rId82"/>
-    <hyperlink ref="D98" r:id="rId83"/>
-    <hyperlink ref="D99" r:id="rId84"/>
-    <hyperlink ref="D100" r:id="rId85"/>
-    <hyperlink ref="D101" r:id="rId86"/>
-    <hyperlink ref="D103" r:id="rId87"/>
-    <hyperlink ref="D104" r:id="rId88"/>
-    <hyperlink ref="D105" r:id="rId89"/>
-    <hyperlink ref="D106" r:id="rId90"/>
-    <hyperlink ref="D107" r:id="rId91"/>
-    <hyperlink ref="D108" r:id="rId92"/>
-    <hyperlink ref="D110" r:id="rId93"/>
-    <hyperlink ref="D111" r:id="rId94"/>
-    <hyperlink ref="D112" r:id="rId95"/>
-    <hyperlink ref="D113" r:id="rId96"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
